--- a/paper/pldi21/img/figure7.xlsx
+++ b/paper/pldi21/img/figure7.xlsx
@@ -8,26 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naldo/project/safe_ds/paper/pldi21/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE94DE1-E8A9-2249-A0EA-70B45BC143C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57F191E-A8BF-C249-ACCD-0C3320FD3C56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26700" activeTab="3" xr2:uid="{6D571640-1E5C-7D4E-B475-B88EE9F06437}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26700" activeTab="4" xr2:uid="{6D571640-1E5C-7D4E-B475-B88EE9F06437}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
     <sheet name="no-DS" sheetId="2" r:id="rId2"/>
     <sheet name="DS" sheetId="1" r:id="rId3"/>
-    <sheet name="Graph" sheetId="3" r:id="rId4"/>
+    <sheet name="Both" sheetId="5" r:id="rId4"/>
+    <sheet name="Graph" sheetId="3" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$D$270</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DS!$A$1:$C$201</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'no-DS'!$A$1:$C$201</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Graph!$E$2:$E$144</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Graph!$E$2:$E$144</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Graph!$E$2:$E$144</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Graph!$E$2:$E$144</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Graph!$E$2:$E$144</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Graph!$E$2:$E$144</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Graph!$E$2:$E$144</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Graph!$E$2:$E$144</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Graph!$D$2:$D$144</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Graph!$E$2:$E$144</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>DS</t>
   </si>
@@ -79,6 +89,15 @@
   </si>
   <si>
     <t>Speed Up</t>
+  </si>
+  <si>
+    <t>SPEED UP</t>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>DS &gt; no-DS</t>
   </si>
 </sst>
 </file>
@@ -1732,6 +1751,67 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48909180436773536"/>
+              <c:y val="0.78145021592364361"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1776,6 +1856,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t># tests</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1904,7 +2037,414 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graph!$D$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>16.45479577787976</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0404362160279321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graph!$D$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>16.34539624370133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0308124461065695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8978-5541-87C3-823DB9A4E886}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1449629391"/>
+        <c:axId val="1676898319"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1449629391"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="64"/>
+          <c:min val="0.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>speed up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1676898319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1676898319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1449629391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{716ED6BE-49BD-014B-8630-C962E3B1015D}">
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="6" min="-2"/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+        <cx:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </cx:spPr>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2460,20 +3000,1051 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>552944</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>80753</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>354736</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>58133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190869</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66070</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>814857</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>51387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2493,6 +4064,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>78282</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>86167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>663248</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>188583</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Chart 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2901BB5-2B27-7149-9EB1-6C2EEE5A8D08}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9178458" y="1696026"/>
+              <a:ext cx="584966" cy="2718437"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>718785</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>27171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53662</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165457</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A546349-94F6-3F43-BCA1-423A30373F29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4187,7 +5872,7 @@
   <dimension ref="A1:D270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A270"/>
+      <selection activeCell="A2" sqref="A2:C267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4444,7 +6129,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>19</v>
       </c>
@@ -4546,7 +6231,7 @@
         <v>0.88847455115698992</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>25</v>
       </c>
@@ -4750,7 +6435,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>39</v>
       </c>
@@ -4767,7 +6452,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>40</v>
       </c>
@@ -5056,7 +6741,7 @@
         <v>1.0007213806115087</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>57</v>
       </c>
@@ -5141,7 +6826,7 @@
         <v>0.39024755226816021</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>62</v>
       </c>
@@ -5158,7 +6843,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>63</v>
       </c>
@@ -5192,7 +6877,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>65</v>
       </c>
@@ -5345,7 +7030,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>75</v>
       </c>
@@ -5379,7 +7064,7 @@
         <v>0.97140772017619326</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>79</v>
       </c>
@@ -5498,7 +7183,7 @@
         <v>16.781438515081209</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>87</v>
       </c>
@@ -5838,7 +7523,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>107</v>
       </c>
@@ -5957,7 +7642,7 @@
         <v>0.49773563155294509</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>114</v>
       </c>
@@ -6807,7 +8492,7 @@
         <v>1.8382846809609918</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>169</v>
       </c>
@@ -6960,7 +8645,7 @@
         <v>0.37552336493575245</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>181</v>
       </c>
@@ -7266,7 +8951,7 @@
         <v>1.4185330015404667</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>208</v>
       </c>
@@ -7436,7 +9121,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>219</v>
       </c>
@@ -7487,7 +9172,7 @@
         <v>0.54977594497625459</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>224</v>
       </c>
@@ -7555,7 +9240,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>228</v>
       </c>
@@ -7589,7 +9274,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>230</v>
       </c>
@@ -8269,7 +9954,7 @@
         <v>8.0476190476190474</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>275</v>
       </c>
@@ -8320,7 +10005,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>278</v>
       </c>
@@ -8422,7 +10107,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>284</v>
       </c>
@@ -8762,7 +10447,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>305</v>
       </c>
@@ -8933,6 +10618,119 @@
         <filter val="99.74"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="107.31"/>
+        <filter val="115.68"/>
+        <filter val="118.98"/>
+        <filter val="241.66"/>
+        <filter val="35.11"/>
+        <filter val="35.17"/>
+        <filter val="35.30"/>
+        <filter val="35.34"/>
+        <filter val="35.38"/>
+        <filter val="35.42"/>
+        <filter val="35.47"/>
+        <filter val="35.53"/>
+        <filter val="35.55"/>
+        <filter val="35.58"/>
+        <filter val="35.59"/>
+        <filter val="35.60"/>
+        <filter val="35.61"/>
+        <filter val="35.63"/>
+        <filter val="35.67"/>
+        <filter val="35.68"/>
+        <filter val="35.69"/>
+        <filter val="35.70"/>
+        <filter val="35.71"/>
+        <filter val="35.72"/>
+        <filter val="35.74"/>
+        <filter val="35.75"/>
+        <filter val="35.77"/>
+        <filter val="35.79"/>
+        <filter val="35.80"/>
+        <filter val="35.84"/>
+        <filter val="35.86"/>
+        <filter val="35.88"/>
+        <filter val="35.89"/>
+        <filter val="35.90"/>
+        <filter val="35.91"/>
+        <filter val="35.94"/>
+        <filter val="35.95"/>
+        <filter val="35.97"/>
+        <filter val="35.98"/>
+        <filter val="36.00"/>
+        <filter val="36.02"/>
+        <filter val="36.03"/>
+        <filter val="36.04"/>
+        <filter val="36.06"/>
+        <filter val="36.07"/>
+        <filter val="36.10"/>
+        <filter val="36.16"/>
+        <filter val="36.17"/>
+        <filter val="36.19"/>
+        <filter val="36.20"/>
+        <filter val="36.22"/>
+        <filter val="36.25"/>
+        <filter val="36.26"/>
+        <filter val="36.27"/>
+        <filter val="36.29"/>
+        <filter val="36.30"/>
+        <filter val="36.34"/>
+        <filter val="36.35"/>
+        <filter val="36.36"/>
+        <filter val="36.37"/>
+        <filter val="36.39"/>
+        <filter val="36.40"/>
+        <filter val="36.41"/>
+        <filter val="36.42"/>
+        <filter val="36.46"/>
+        <filter val="36.49"/>
+        <filter val="36.51"/>
+        <filter val="36.56"/>
+        <filter val="36.61"/>
+        <filter val="36.62"/>
+        <filter val="36.65"/>
+        <filter val="36.70"/>
+        <filter val="36.78"/>
+        <filter val="36.86"/>
+        <filter val="36.93"/>
+        <filter val="36.95"/>
+        <filter val="37.00"/>
+        <filter val="37.01"/>
+        <filter val="37.12"/>
+        <filter val="37.25"/>
+        <filter val="37.27"/>
+        <filter val="37.38"/>
+        <filter val="37.80"/>
+        <filter val="37.82"/>
+        <filter val="37.89"/>
+        <filter val="39.02"/>
+        <filter val="40.31"/>
+        <filter val="40.49"/>
+        <filter val="40.76"/>
+        <filter val="41.04"/>
+        <filter val="41.06"/>
+        <filter val="41.19"/>
+        <filter val="41.46"/>
+        <filter val="42.11"/>
+        <filter val="42.81"/>
+        <filter val="45.13"/>
+        <filter val="45.19"/>
+        <filter val="47.18"/>
+        <filter val="48.90"/>
+        <filter val="49.58"/>
+        <filter val="55.28"/>
+        <filter val="55.85"/>
+        <filter val="57.46"/>
+        <filter val="58.95"/>
+        <filter val="64.40"/>
+        <filter val="66.09"/>
+        <filter val="73.58"/>
+        <filter val="74.90"/>
+        <filter val="86.41"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8942,8 +10740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68A2F5D-D56E-6847-8151-EE180B0E3B43}">
   <dimension ref="A1:J556"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12850,8 +14648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024EEC5D-6CA8-6B42-AC82-2A11548242C5}">
   <dimension ref="A1:J502"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16728,16 +18526,2047 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB22A503-B58D-B041-B089-126B049701B1}">
-  <dimension ref="A1:C301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A9B793-ECBF-1646-8B89-61EB194F07F8}">
+  <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="183" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>35.854999999999997</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.1789999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>35.682000000000002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.1829999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>35.938000000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>35.344000000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>26.77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>35.674999999999997</v>
+      </c>
+      <c r="D6" s="1">
+        <v>30.248000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>35.423999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>35.381999999999998</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.1160000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>37.122</v>
+      </c>
+      <c r="D9" s="1">
+        <v>16.747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>36.947000000000003</v>
+      </c>
+      <c r="D10" s="1">
+        <v>75.751999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>36.341000000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43.436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>35.774000000000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>23.576000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1">
+        <v>41.064</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1">
+        <v>35.976999999999997</v>
+      </c>
+      <c r="D14" s="1">
+        <v>40.493000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1">
+        <v>41.459000000000003</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.3460000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1">
+        <v>36.78</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45.564</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1">
+        <v>35.875999999999998</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.1819999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1">
+        <v>41.194000000000003</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.5390000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1">
+        <v>35.786999999999999</v>
+      </c>
+      <c r="D19" s="1">
+        <v>22.317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45.131</v>
+      </c>
+      <c r="D20" s="1">
+        <v>55.920999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1">
+        <v>36.216999999999999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1">
+        <v>36.402999999999999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.3109999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1">
+        <v>35.548000000000002</v>
+      </c>
+      <c r="D23" s="1">
+        <v>27.349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>52</v>
+      </c>
+      <c r="C24" s="1">
+        <v>36.350999999999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>72.911000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>53</v>
+      </c>
+      <c r="C25" s="1">
+        <v>36.058</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.3140000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="D26" s="1">
+        <v>15.609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>55</v>
+      </c>
+      <c r="C27" s="1">
+        <v>35.104999999999997</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2.3050000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>56</v>
+      </c>
+      <c r="C28" s="1">
+        <v>36.067999999999998</v>
+      </c>
+      <c r="D28" s="1">
+        <v>36.042000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>59</v>
+      </c>
+      <c r="C29" s="1">
+        <v>36.648000000000003</v>
+      </c>
+      <c r="D29" s="1">
+        <v>32.963999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>60</v>
+      </c>
+      <c r="C30" s="1">
+        <v>107.31399999999999</v>
+      </c>
+      <c r="D30" s="1">
+        <v>42.970999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>61</v>
+      </c>
+      <c r="C31" s="1">
+        <v>36.51</v>
+      </c>
+      <c r="D31" s="1">
+        <v>93.555999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>68</v>
+      </c>
+      <c r="C32" s="1">
+        <v>42.104999999999997</v>
+      </c>
+      <c r="D32" s="1">
+        <v>156.88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>71</v>
+      </c>
+      <c r="C33" s="1">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2.1549999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>72</v>
+      </c>
+      <c r="C34" s="1">
+        <v>35.164999999999999</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2.1339999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>73</v>
+      </c>
+      <c r="C35" s="1">
+        <v>36.189</v>
+      </c>
+      <c r="D35" s="1">
+        <v>13.173999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>77</v>
+      </c>
+      <c r="C36" s="1">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="D36" s="1">
+        <v>38.366999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>80</v>
+      </c>
+      <c r="C37" s="1">
+        <v>35.747999999999998</v>
+      </c>
+      <c r="D37" s="1">
+        <v>22.986999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>82</v>
+      </c>
+      <c r="C38" s="1">
+        <v>35.472000000000001</v>
+      </c>
+      <c r="D38" s="1">
+        <v>27.757000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>83</v>
+      </c>
+      <c r="C39" s="1">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="D39" s="1">
+        <v>28.54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>86</v>
+      </c>
+      <c r="C40" s="1">
+        <v>36.164000000000001</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2.1549999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>89</v>
+      </c>
+      <c r="C41" s="1">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="D41" s="1">
+        <v>106.83799999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>94</v>
+      </c>
+      <c r="C42" s="1">
+        <v>48.896000000000001</v>
+      </c>
+      <c r="D42" s="1">
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>97</v>
+      </c>
+      <c r="C43" s="1">
+        <v>35.942</v>
+      </c>
+      <c r="D43" s="1">
+        <v>64.566999999999993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>98</v>
+      </c>
+      <c r="C44" s="1">
+        <v>35.524999999999999</v>
+      </c>
+      <c r="D44" s="1">
+        <v>62.607999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>99</v>
+      </c>
+      <c r="C45" s="1">
+        <v>35.939</v>
+      </c>
+      <c r="D45" s="1">
+        <v>66.046999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+      <c r="C46" s="1">
+        <v>36.463999999999999</v>
+      </c>
+      <c r="D46" s="1">
+        <v>65.846000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>101</v>
+      </c>
+      <c r="C47" s="1">
+        <v>35.527999999999999</v>
+      </c>
+      <c r="D47" s="1">
+        <v>31.558</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>102</v>
+      </c>
+      <c r="C48" s="1">
+        <v>35.789000000000001</v>
+      </c>
+      <c r="D48" s="1">
+        <v>65.451999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>103</v>
+      </c>
+      <c r="C49" s="1">
+        <v>35.720999999999997</v>
+      </c>
+      <c r="D49" s="1">
+        <v>56.817</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>104</v>
+      </c>
+      <c r="C50" s="1">
+        <v>35.906999999999996</v>
+      </c>
+      <c r="D50" s="1">
+        <v>65.084000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>105</v>
+      </c>
+      <c r="C51" s="1">
+        <v>37.252000000000002</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2.3730000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>108</v>
+      </c>
+      <c r="C52" s="1">
+        <v>36.271999999999998</v>
+      </c>
+      <c r="D52" s="1">
+        <v>24.640999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>109</v>
+      </c>
+      <c r="C53" s="1">
+        <v>36.296999999999997</v>
+      </c>
+      <c r="D53" s="1">
+        <v>64.938999999999993</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>110</v>
+      </c>
+      <c r="C54" s="1">
+        <v>35.994999999999997</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2.0680000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>111</v>
+      </c>
+      <c r="C55" s="1">
+        <v>37.006999999999998</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2.2320000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>112</v>
+      </c>
+      <c r="C56" s="1">
+        <v>36.021999999999998</v>
+      </c>
+      <c r="D56" s="1">
+        <v>61.774000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>113</v>
+      </c>
+      <c r="C57" s="1">
+        <v>36.268999999999998</v>
+      </c>
+      <c r="D57" s="1">
+        <v>72.867999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>115</v>
+      </c>
+      <c r="C58" s="1">
+        <v>36.293999999999997</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2.1819999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>116</v>
+      </c>
+      <c r="C59" s="1">
+        <v>115.68300000000001</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3.6469999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>117</v>
+      </c>
+      <c r="C60" s="1">
+        <v>35.67</v>
+      </c>
+      <c r="D60" s="1">
+        <v>64.284000000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>118</v>
+      </c>
+      <c r="C61" s="1">
+        <v>35.526000000000003</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2.2440000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>119</v>
+      </c>
+      <c r="C62" s="1">
+        <v>35.612000000000002</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2.0659999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>120</v>
+      </c>
+      <c r="C63" s="1">
+        <v>35.792999999999999</v>
+      </c>
+      <c r="D63" s="1">
+        <v>61.335000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>121</v>
+      </c>
+      <c r="C64" s="1">
+        <v>35.796999999999997</v>
+      </c>
+      <c r="D64" s="1">
+        <v>53.511000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>122</v>
+      </c>
+      <c r="C65" s="1">
+        <v>36.101999999999997</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2.1309999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>123</v>
+      </c>
+      <c r="C66" s="1">
+        <v>35.689</v>
+      </c>
+      <c r="D66" s="1">
+        <v>54.603000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>124</v>
+      </c>
+      <c r="C67" s="1">
+        <v>36.201999999999998</v>
+      </c>
+      <c r="D67" s="1">
+        <v>69.135000000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>125</v>
+      </c>
+      <c r="C68" s="1">
+        <v>35.838999999999999</v>
+      </c>
+      <c r="D68" s="1">
+        <v>61.786000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>126</v>
+      </c>
+      <c r="C69" s="1">
+        <v>35.741999999999997</v>
+      </c>
+      <c r="D69" s="1">
+        <v>64.805000000000007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>127</v>
+      </c>
+      <c r="C70" s="1">
+        <v>36.374000000000002</v>
+      </c>
+      <c r="D70" s="1">
+        <v>62.207999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>128</v>
+      </c>
+      <c r="C71" s="1">
+        <v>35.585000000000001</v>
+      </c>
+      <c r="D71" s="1">
+        <v>22.835000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>129</v>
+      </c>
+      <c r="C72" s="1">
+        <v>36.064999999999998</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2.137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>130</v>
+      </c>
+      <c r="C73" s="1">
+        <v>35.627000000000002</v>
+      </c>
+      <c r="D73" s="1">
+        <v>71.677000000000007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>131</v>
+      </c>
+      <c r="C74" s="1">
+        <v>36.624000000000002</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2.1339999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>134</v>
+      </c>
+      <c r="C75" s="1">
+        <v>35.753</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2.0640000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>138</v>
+      </c>
+      <c r="C76" s="1">
+        <v>36.064999999999998</v>
+      </c>
+      <c r="D76" s="1">
+        <v>23.082000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>139</v>
+      </c>
+      <c r="C77" s="1">
+        <v>36.256</v>
+      </c>
+      <c r="D77" s="1">
+        <v>24.904</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>140</v>
+      </c>
+      <c r="C78" s="1">
+        <v>35.770000000000003</v>
+      </c>
+      <c r="D78" s="1">
+        <v>28.472999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>141</v>
+      </c>
+      <c r="C79" s="1">
+        <v>35.526000000000003</v>
+      </c>
+      <c r="D79" s="1">
+        <v>28.038</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>143</v>
+      </c>
+      <c r="C80" s="1">
+        <v>36.259</v>
+      </c>
+      <c r="D80" s="1">
+        <v>69.727000000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>145</v>
+      </c>
+      <c r="C81" s="1">
+        <v>42.814</v>
+      </c>
+      <c r="D81" s="1">
+        <v>46.628999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>146</v>
+      </c>
+      <c r="C82" s="1">
+        <v>40.313000000000002</v>
+      </c>
+      <c r="D82" s="1">
+        <v>97.497</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>147</v>
+      </c>
+      <c r="C83" s="1">
+        <v>55.283999999999999</v>
+      </c>
+      <c r="D83" s="1">
+        <v>19.559000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>148</v>
+      </c>
+      <c r="C84" s="1">
+        <v>37.819000000000003</v>
+      </c>
+      <c r="D84" s="1">
+        <v>66.756</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>149</v>
+      </c>
+      <c r="C85" s="1">
+        <v>73.578999999999994</v>
+      </c>
+      <c r="D85" s="1">
+        <v>223.898</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>151</v>
+      </c>
+      <c r="C86" s="1">
+        <v>35.841999999999999</v>
+      </c>
+      <c r="D86" s="1">
+        <v>28.777999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>152</v>
+      </c>
+      <c r="C87" s="1">
+        <v>37.89</v>
+      </c>
+      <c r="D87" s="1">
+        <v>24.71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>153</v>
+      </c>
+      <c r="C88" s="1">
+        <v>36.36</v>
+      </c>
+      <c r="D88" s="1">
+        <v>30.641999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>155</v>
+      </c>
+      <c r="C89" s="1">
+        <v>35.526000000000003</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2.2010000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>157</v>
+      </c>
+      <c r="C90" s="1">
+        <v>45.191000000000003</v>
+      </c>
+      <c r="D90" s="1">
+        <v>2.391</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>160</v>
+      </c>
+      <c r="C91" s="1">
+        <v>35.677999999999997</v>
+      </c>
+      <c r="D91" s="1">
+        <v>21.262</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>162</v>
+      </c>
+      <c r="C92" s="1">
+        <v>64.397999999999996</v>
+      </c>
+      <c r="D92" s="1">
+        <v>52.121000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>163</v>
+      </c>
+      <c r="C93" s="1">
+        <v>35.591999999999999</v>
+      </c>
+      <c r="D93" s="1">
+        <v>26.69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>166</v>
+      </c>
+      <c r="C94" s="1">
+        <v>36.387999999999998</v>
+      </c>
+      <c r="D94" s="1">
+        <v>54.154000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>167</v>
+      </c>
+      <c r="C95" s="1">
+        <v>35.89</v>
+      </c>
+      <c r="D95" s="1">
+        <v>2.157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>168</v>
+      </c>
+      <c r="C96" s="1">
+        <v>35.58</v>
+      </c>
+      <c r="D96" s="1">
+        <v>19.355</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>174</v>
+      </c>
+      <c r="C97" s="1">
+        <v>35.701999999999998</v>
+      </c>
+      <c r="D97" s="1">
+        <v>24.41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>175</v>
+      </c>
+      <c r="C98" s="1">
+        <v>41.04</v>
+      </c>
+      <c r="D98" s="1">
+        <v>158.37700000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>176</v>
+      </c>
+      <c r="C99" s="1">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D99" s="1">
+        <v>119.994</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>177</v>
+      </c>
+      <c r="C100" s="1">
+        <v>39.015000000000001</v>
+      </c>
+      <c r="D100" s="1">
+        <v>103.895</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>186</v>
+      </c>
+      <c r="C101" s="1">
+        <v>57.463999999999999</v>
+      </c>
+      <c r="D101" s="1">
+        <v>72.899000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>192</v>
+      </c>
+      <c r="C102" s="1">
+        <v>35.716999999999999</v>
+      </c>
+      <c r="D102" s="1">
+        <v>2.169</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>195</v>
+      </c>
+      <c r="C103" s="1">
+        <v>40.76</v>
+      </c>
+      <c r="D103" s="1">
+        <v>74.198999999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>200</v>
+      </c>
+      <c r="C104" s="1">
+        <v>36.854999999999997</v>
+      </c>
+      <c r="D104" s="1">
+        <v>2.1829999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>201</v>
+      </c>
+      <c r="C105" s="1">
+        <v>36.412999999999997</v>
+      </c>
+      <c r="D105" s="1">
+        <v>103.003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>203</v>
+      </c>
+      <c r="C106" s="1">
+        <v>35.765999999999998</v>
+      </c>
+      <c r="D106" s="1">
+        <v>34.627000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>207</v>
+      </c>
+      <c r="C107" s="1">
+        <v>35.912999999999997</v>
+      </c>
+      <c r="D107" s="1">
+        <v>25.317</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>213</v>
+      </c>
+      <c r="C108" s="1">
+        <v>241.655</v>
+      </c>
+      <c r="D108" s="1">
+        <v>4.7759999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>214</v>
+      </c>
+      <c r="C109" s="1">
+        <v>36.259</v>
+      </c>
+      <c r="D109" s="1">
+        <v>50.966000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>221</v>
+      </c>
+      <c r="C110" s="1">
+        <v>36.929000000000002</v>
+      </c>
+      <c r="D110" s="1">
+        <v>67.171000000000006</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>226</v>
+      </c>
+      <c r="C111" s="1">
+        <v>35.863</v>
+      </c>
+      <c r="D111" s="1">
+        <v>2.1160000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>231</v>
+      </c>
+      <c r="C112" s="1">
+        <v>35.685000000000002</v>
+      </c>
+      <c r="D112" s="1">
+        <v>54.985999999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>233</v>
+      </c>
+      <c r="C113" s="1">
+        <v>74.900999999999996</v>
+      </c>
+      <c r="D113" s="1">
+        <v>49.872</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>234</v>
+      </c>
+      <c r="C114" s="1">
+        <v>35.713000000000001</v>
+      </c>
+      <c r="D114" s="1">
+        <v>27.495000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>235</v>
+      </c>
+      <c r="C115" s="1">
+        <v>86.412000000000006</v>
+      </c>
+      <c r="D115" s="1">
+        <v>2.423</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>236</v>
+      </c>
+      <c r="C116" s="1">
+        <v>36.029000000000003</v>
+      </c>
+      <c r="D116" s="1">
+        <v>30.131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>237</v>
+      </c>
+      <c r="C117" s="1">
+        <v>36.406999999999996</v>
+      </c>
+      <c r="D117" s="1">
+        <v>46.350999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>239</v>
+      </c>
+      <c r="C118" s="1">
+        <v>55.853000000000002</v>
+      </c>
+      <c r="D118" s="1">
+        <v>138.71199999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>240</v>
+      </c>
+      <c r="C119" s="1">
+        <v>66.093999999999994</v>
+      </c>
+      <c r="D119" s="1">
+        <v>2.6779999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>243</v>
+      </c>
+      <c r="C120" s="1">
+        <v>36.606000000000002</v>
+      </c>
+      <c r="D120" s="1">
+        <v>2.097</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>248</v>
+      </c>
+      <c r="C121" s="1">
+        <v>49.579000000000001</v>
+      </c>
+      <c r="D121" s="1">
+        <v>110.358</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>250</v>
+      </c>
+      <c r="C122" s="1">
+        <v>36.067999999999998</v>
+      </c>
+      <c r="D122" s="1">
+        <v>28.792999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>251</v>
+      </c>
+      <c r="C123" s="1">
+        <v>36.247999999999998</v>
+      </c>
+      <c r="D123" s="1">
+        <v>30.872</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>253</v>
+      </c>
+      <c r="C124" s="1">
+        <v>36.173999999999999</v>
+      </c>
+      <c r="D124" s="1">
+        <v>81.992000000000004</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>254</v>
+      </c>
+      <c r="C125" s="1">
+        <v>36.249000000000002</v>
+      </c>
+      <c r="D125" s="1">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>256</v>
+      </c>
+      <c r="C126" s="1">
+        <v>35.6</v>
+      </c>
+      <c r="D126" s="1">
+        <v>2.1440000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>257</v>
+      </c>
+      <c r="C127" s="1">
+        <v>36.036999999999999</v>
+      </c>
+      <c r="D127" s="1">
+        <v>2.1469999999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>258</v>
+      </c>
+      <c r="C128" s="1">
+        <v>58.948999999999998</v>
+      </c>
+      <c r="D128" s="1">
+        <v>2.6160000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>260</v>
+      </c>
+      <c r="C129" s="1">
+        <v>36.997</v>
+      </c>
+      <c r="D129" s="1">
+        <v>51.284999999999997</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>261</v>
+      </c>
+      <c r="C130" s="1">
+        <v>37.378</v>
+      </c>
+      <c r="D130" s="1">
+        <v>59.512999999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>266</v>
+      </c>
+      <c r="C131" s="1">
+        <v>35.968000000000004</v>
+      </c>
+      <c r="D131" s="1">
+        <v>17.297999999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>267</v>
+      </c>
+      <c r="C132" s="1">
+        <v>47.18</v>
+      </c>
+      <c r="D132" s="1">
+        <v>147.136</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>271</v>
+      </c>
+      <c r="C133" s="1">
+        <v>36.564</v>
+      </c>
+      <c r="D133" s="1">
+        <v>61.668999999999997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>274</v>
+      </c>
+      <c r="C134" s="1">
+        <v>118.976</v>
+      </c>
+      <c r="D134" s="1">
+        <v>14.784000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>279</v>
+      </c>
+      <c r="C135" s="1">
+        <v>36.17</v>
+      </c>
+      <c r="D135" s="1">
+        <v>24.372</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>281</v>
+      </c>
+      <c r="C136" s="1">
+        <v>40.493000000000002</v>
+      </c>
+      <c r="D136" s="1">
+        <v>23.475000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>291</v>
+      </c>
+      <c r="C137" s="1">
+        <v>36.488999999999997</v>
+      </c>
+      <c r="D137" s="1">
+        <v>103.93899999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>292</v>
+      </c>
+      <c r="C138" s="1">
+        <v>37.884999999999998</v>
+      </c>
+      <c r="D138" s="1">
+        <v>26.364999999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>294</v>
+      </c>
+      <c r="C139" s="1">
+        <v>36.1</v>
+      </c>
+      <c r="D139" s="1">
+        <v>37.792000000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>296</v>
+      </c>
+      <c r="C140" s="1">
+        <v>36.420999999999999</v>
+      </c>
+      <c r="D140" s="1">
+        <v>125.602</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>299</v>
+      </c>
+      <c r="C141" s="1">
+        <v>35.901000000000003</v>
+      </c>
+      <c r="D141" s="1">
+        <v>2.1659999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>300</v>
+      </c>
+      <c r="C142" s="1">
+        <v>36.347000000000001</v>
+      </c>
+      <c r="D142" s="1">
+        <v>99.739000000000004</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>301</v>
+      </c>
+      <c r="C143" s="1">
+        <v>35.67</v>
+      </c>
+      <c r="D143" s="1">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>302</v>
+      </c>
+      <c r="C144" s="1">
+        <v>36.198999999999998</v>
+      </c>
+      <c r="D144" s="1">
+        <v>2.294</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB22A503-B58D-B041-B089-126B049701B1}">
+  <dimension ref="A1:F301"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="284" zoomScaleNormal="183" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -16747,8 +20576,17 @@
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16760,8 +20598,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <f>Both!C2/Both!D2</f>
+        <v>16.45479577787976</v>
+      </c>
+      <c r="E2">
+        <f>LOG(D2,2)</f>
+        <v>4.0404362160279321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16773,8 +20619,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A3)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <f>Both!C3/Both!D3</f>
+        <v>16.34539624370133</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">LOG(D3,2)</f>
+        <v>4.0308124461065695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16786,8 +20640,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A4)</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <f>Both!C4/Both!D4</f>
+        <v>16.35031847133758</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4.0312468316837915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16799,8 +20661,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A5)</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <f>Both!C5/Both!D5</f>
+        <v>1.3202838998879343</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.40084818482713463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16812,8 +20682,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A6)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f>Both!C6/Both!D6</f>
+        <v>1.1794168209468394</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.23807367526325379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16825,8 +20703,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A7)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f>Both!C7/Both!D7</f>
+        <v>16.553271028037383</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>4.0490444254930429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16838,8 +20724,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A8)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f>Both!C8/Both!D8</f>
+        <v>16.721172022684307</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>4.0636040674290461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16851,8 +20745,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A9)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f>Both!C9/Both!D9</f>
+        <v>2.2166358153699171</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.1483717604990333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16864,8 +20766,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A10)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <f>Both!C10/Both!D10</f>
+        <v>0.48773629739148811</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>-1.0358267529870195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16877,8 +20787,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A11)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f>Both!C11/Both!D11</f>
+        <v>0.83665622985541954</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-0.2572931332340449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16890,8 +20808,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A12)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <f>Both!C12/Both!D12</f>
+        <v>1.5173905666779777</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.60159247390835757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -16903,8 +20829,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A13)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f>Both!C13/Both!D13</f>
+        <v>18.153846153846153</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>4.1822033312207489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -16916,8 +20850,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A14)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f>Both!C14/Both!D14</f>
+        <v>0.88847455115698992</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>-0.17059764158829938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -16929,8 +20871,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A15)</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f>Both!C15/Both!D15</f>
+        <v>17.67220801364024</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>4.1434104002731456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -16942,8 +20892,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A16)</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f>Both!C16/Both!D16</f>
+        <v>0.80721622333421128</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>-0.3089729250409452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -16955,8 +20913,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A17)</f>
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f>Both!C17/Both!D17</f>
+        <v>16.44179651695692</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>4.0392960389496109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -16968,8 +20934,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A18)</f>
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f>Both!C18/Both!D18</f>
+        <v>16.224497833792832</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>4.0201019207907729</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -16981,8 +20955,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A19)</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <f>Both!C19/Both!D19</f>
+        <v>1.6035757494286866</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.68129250516335926</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -16994,8 +20976,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A20)</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <f>Both!C20/Both!D20</f>
+        <v>0.80704923016398133</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>-0.3092714140148502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -17007,8 +20997,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A21)</f>
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <f>Both!C21/Both!D21</f>
+        <v>14.603629032258064</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>3.8682550212708002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -17020,8 +21018,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A22)</f>
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <f>Both!C22/Both!D22</f>
+        <v>15.752055387278235</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>3.9774681840436283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -17033,8 +21039,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A23)</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <f>Both!C23/Both!D23</f>
+        <v>1.2997915828732312</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.37828031059170675</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -17046,8 +21060,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A24)</f>
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <f>Both!C24/Both!D24</f>
+        <v>0.4985667457585275</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>-1.0041414361438055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -17059,8 +21081,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A25)</f>
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <f>Both!C25/Both!D25</f>
+        <v>15.582541054451166</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>3.9618586086292664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -17072,8 +21102,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A26)</f>
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <f>Both!C26/Both!D26</f>
+        <v>2.305080402331988</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1.204817073440996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -17085,8 +21123,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A27)</f>
         <v>74</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <f>Both!C27/Both!D27</f>
+        <v>15.229934924078089</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>3.9288378722404467</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -17098,8 +21144,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A28)</f>
         <v>77</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <f>Both!C28/Both!D28</f>
+        <v>1.0007213806115087</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1.0403570292218066E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -17111,8 +21165,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A29)</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <f>Both!C29/Both!D29</f>
+        <v>1.1117582817619223</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.15284315172099558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -17124,8 +21186,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A30)</f>
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <f>Both!C30/Both!D30</f>
+        <v>2.4973586837634683</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1.3204030435825258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -17137,8 +21207,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A31)</f>
         <v>85</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <f>Both!C31/Both!D31</f>
+        <v>0.39024755226816021</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>-1.3575385116057961</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -17150,8 +21228,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A32)</f>
         <v>89</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <f>Both!C32/Both!D32</f>
+        <v>0.2683898521162672</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>-1.8975979709584685</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -17163,8 +21249,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A33)</f>
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <f>Both!C33/Both!D33</f>
+        <v>16.380510440835266</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>4.0339084090694444</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -17176,8 +21270,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A34)</f>
         <v>91</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <f>Both!C34/Both!D34</f>
+        <v>16.478444236176195</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>4.042508136030845</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -17189,8 +21291,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A35)</f>
         <v>91</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <f>Both!C35/Both!D35</f>
+        <v>2.7470016699559738</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1.4578577874565322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -17202,8 +21312,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A36)</f>
         <v>93</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <f>Both!C36/Both!D36</f>
+        <v>0.97140772017619326</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>-4.1851142790036426E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -17215,8 +21333,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A37)</f>
         <v>94</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <f>Both!C37/Both!D37</f>
+        <v>1.5551398616609389</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>0.63704433511531511</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -17228,8 +21354,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A38)</f>
         <v>95</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <f>Both!C38/Both!D38</f>
+        <v>1.2779479050329647</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0.35382902667422678</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -17241,8 +21375,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A39)</f>
         <v>96</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <f>Both!C39/Both!D39</f>
+        <v>1.2596355991590751</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0.33300643585089679</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -17254,8 +21396,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A40)</f>
         <v>97</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <f>Both!C40/Both!D40</f>
+        <v>16.781438515081209</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>4.0687944846592421</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -17267,8 +21417,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A41)</f>
         <v>98</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <f>Both!C41/Both!D41</f>
+        <v>0.34351073588049202</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>-1.5415729060055383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -17280,8 +21438,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A42)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <f>Both!C42/Both!D42</f>
+        <v>0.51415352260778135</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>-0.9597288925995392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -17293,8 +21459,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A43)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <f>Both!C43/Both!D43</f>
+        <v>0.55666207195626249</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>-0.84512630603369343</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -17306,8 +21480,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A44)</f>
         <v>101</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <f>Both!C44/Both!D44</f>
+        <v>0.56741949910554568</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>-0.81751236588328902</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -17319,8 +21501,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A45)</f>
         <v>102</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <f>Both!C45/Both!D45</f>
+        <v>0.54414280739473408</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>-0.87794276605438637</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -17332,8 +21522,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A46)</f>
         <v>102</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <f>Both!C46/Both!D46</f>
+        <v>0.55377699480606257</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>-0.85262297287010114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -17345,8 +21543,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A47)</f>
         <v>103</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <f>Both!C47/Both!D47</f>
+        <v>1.1258001140756702</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>0.1709506995045422</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -17358,8 +21564,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A48)</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <f>Both!C48/Both!D48</f>
+        <v>0.54679765324207052</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>-0.87092104371971035</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -17371,8 +21585,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A49)</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <f>Both!C49/Both!D49</f>
+        <v>0.62870267701568183</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>-0.66955018876315553</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -17384,8 +21606,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A50)</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <f>Both!C50/Both!D50</f>
+        <v>0.55170241534017572</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>-0.85803779831763194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -17397,8 +21627,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A51)</f>
         <v>106</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <f>Both!C51/Both!D51</f>
+        <v>15.69827222924568</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>3.9725338779873316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -17410,8 +21648,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A52)</f>
         <v>107</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <f>Both!C52/Both!D52</f>
+        <v>1.4720181810803132</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>0.55779549041151666</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -17423,8 +21669,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A53)</f>
         <v>108</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <f>Both!C53/Both!D53</f>
+        <v>0.55893992824034866</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>-0.83923485633898365</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -17436,8 +21690,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A54)</f>
         <v>109</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <f>Both!C54/Both!D54</f>
+        <v>17.405705996131527</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>4.1214884275620589</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -17449,8 +21711,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A55)</f>
         <v>110</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <f>Both!C55/Both!D55</f>
+        <v>16.580197132616487</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>4.0513892549512711</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -17462,8 +21732,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A56)</f>
         <v>115</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <f>Both!C56/Both!D56</f>
+        <v>0.58312558681645998</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>-0.7781214670957064</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -17475,8 +21753,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A57)</f>
         <v>116</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <f>Both!C57/Both!D57</f>
+        <v>0.49773563155294509</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>-1.0065484255242287</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -17488,8 +21774,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A58)</f>
         <v>117</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <f>Both!C58/Both!D58</f>
+        <v>16.633363886342803</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>4.0560080597468637</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -17501,8 +21795,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A59)</f>
         <v>117</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <f>Both!C59/Both!D59</f>
+        <v>31.720043871675355</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>4.9873228613077121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -17514,8 +21816,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A60)</f>
         <v>118</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <f>Both!C60/Both!D60</f>
+        <v>0.55488146350569345</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>-0.84974848608662135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -17527,8 +21837,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A61)</f>
         <v>119</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <f>Both!C61/Both!D61</f>
+        <v>15.831550802139038</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>3.9847306785349876</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -17540,8 +21858,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A62)</f>
         <v>119</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <f>Both!C62/Both!D62</f>
+        <v>17.237173281703779</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>4.1074513016326923</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -17553,8 +21879,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A63)</f>
         <v>123</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <f>Both!C63/Both!D63</f>
+        <v>0.58356566397652232</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>-0.77703309488736061</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -17566,8 +21900,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A64)</f>
         <v>125</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <f>Both!C64/Both!D64</f>
+        <v>0.66896525947935925</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>-0.57999680371903006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -17579,8 +21921,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A65)</f>
         <v>125</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <f>Both!C65/Both!D65</f>
+        <v>16.941342092914127</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>4.0824762643683066</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -17592,8 +21942,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A66)</f>
         <v>129</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <f>Both!C66/Both!D66</f>
+        <v>0.65360877607457468</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>-0.61350074005391075</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -17605,8 +21963,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A67)</f>
         <v>132</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <f>Both!C67/Both!D67</f>
+        <v>0.52364214941780562</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="1">LOG(D67,2)</f>
+        <v>-0.93334686638066855</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -17618,8 +21984,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A68)</f>
         <v>134</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <f>Both!C68/Both!D68</f>
+        <v>0.58005049687631494</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>-0.78574959391980126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -17631,8 +22005,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A69)</f>
         <v>135</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <f>Both!C69/Both!D69</f>
+        <v>0.55153151762981245</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>-0.85848476296192777</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -17644,8 +22026,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A70)</f>
         <v>135</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <f>Both!C70/Both!D70</f>
+        <v>0.58471579218107006</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>-0.77419253829993528</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -17657,8 +22047,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A71)</f>
         <v>137</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <f>Both!C71/Both!D71</f>
+        <v>1.5583534048609591</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>0.64002244625145066</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -17670,8 +22068,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A72)</f>
         <v>137</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <f>Both!C72/Both!D72</f>
+        <v>16.876462330369677</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>4.0769406107022776</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -17683,8 +22089,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A73)</f>
         <v>138</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <f>Both!C73/Both!D73</f>
+        <v>0.49704926266445304</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>-1.0085392501829811</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -17696,8 +22110,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A74)</f>
         <v>141</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <f>Both!C74/Both!D74</f>
+        <v>17.162136832239927</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>4.1011572867312616</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -17709,8 +22131,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A75)</f>
         <v>141</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <f>Both!C75/Both!D75</f>
+        <v>17.322189922480622</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>4.1145494262559597</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -17722,8 +22152,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A76)</f>
         <v>142</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <f>Both!C76/Both!D76</f>
+        <v>1.5624729226236893</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>0.64383118834431752</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -17735,8 +22173,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A77)</f>
         <v>143</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <f>Both!C77/Both!D77</f>
+        <v>1.4558303886925794</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>0.54184228435133608</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -17748,8 +22194,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A78)</f>
         <v>143</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <f>Both!C78/Both!D78</f>
+        <v>1.2562778772872547</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>0.32915561060228576</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -17761,8 +22215,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A79)</f>
         <v>143</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <f>Both!C79/Both!D79</f>
+        <v>1.2670661245452601</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>0.34149181655782446</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -17774,8 +22236,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A80)</f>
         <v>143</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <f>Both!C80/Both!D80</f>
+        <v>0.52001376798083954</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>-0.94337827406684471</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -17787,8 +22257,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A81)</f>
         <v>143</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <f>Both!C81/Both!D81</f>
+        <v>0.91818396276995007</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>-0.12314486108835569</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -17800,8 +22278,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A82)</f>
         <v>143</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <f>Both!C82/Both!D82</f>
+        <v>0.41347938910940851</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>-1.2741126783583938</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -17813,8 +22299,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A83)</f>
         <v>144</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <f>Both!C83/Both!D83</f>
+        <v>2.8265248734597881</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>1.4990293927864282</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -17826,8 +22320,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A84)</f>
         <v>144</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <f>Both!C84/Both!D84</f>
+        <v>0.56652585535382594</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>-0.81978629499418654</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -17839,8 +22341,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A85)</f>
         <v>144</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <f>Both!C85/Both!D85</f>
+        <v>0.32862732136955219</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>-1.6054756670466659</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -17852,8 +22362,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A86)</f>
         <v>145</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <f>Both!C86/Both!D86</f>
+        <v>1.2454652859823476</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>0.3166848108689484</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -17865,8 +22383,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A87)</f>
         <v>145</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <f>Both!C87/Both!D87</f>
+        <v>1.5333872925940915</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>0.61672212917992408</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -17878,8 +22404,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A88)</f>
         <v>145</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <f>Both!C88/Both!D88</f>
+        <v>1.1866066183669473</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>0.2468417346478973</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -17891,8 +22425,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A89)</f>
         <v>145</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <f>Both!C89/Both!D89</f>
+        <v>16.140845070422536</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>4.0126442092522225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -17904,8 +22446,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A90)</f>
         <v>145</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <f>Both!C90/Both!D90</f>
+        <v>18.900460058552909</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>4.2403494465884641</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -17917,8 +22467,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A91)</f>
         <v>145</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <f>Both!C91/Both!D91</f>
+        <v>1.6780171197441442</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>0.74675743475508183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -17930,8 +22488,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A92)</f>
         <v>145</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <f>Both!C92/Both!D92</f>
+        <v>1.2355480516490474</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>0.30515111955195323</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -17943,8 +22509,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A93)</f>
         <v>145</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <f>Both!C93/Both!D93</f>
+        <v>1.3335331584863244</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>0.41525369814645785</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -17956,8 +22530,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A94)</f>
         <v>146</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <f>Both!C94/Both!D94</f>
+        <v>0.67193559109207068</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>-0.57360514590935563</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -17969,8 +22551,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A95)</f>
         <v>147</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <f>Both!C95/Both!D95</f>
+        <v>16.638850254983772</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>4.0564838415429856</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -17982,8 +22572,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A96)</f>
         <v>147</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96">
+        <f>Both!C96/Both!D96</f>
+        <v>1.8382846809609918</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>0.87836020297484863</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -17995,8 +22593,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A97)</f>
         <v>148</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <f>Both!C97/Both!D97</f>
+        <v>1.4625972961900859</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>0.5485326001230264</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -18008,8 +22614,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A98)</f>
         <v>148</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98">
+        <f>Both!C98/Both!D98</f>
+        <v>0.25912853507769434</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>-1.9482602019153514</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -18021,8 +22635,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A99)</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <f>Both!C99/Both!D99</f>
+        <v>0.31501575078753935</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>-1.666504129719335</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -18034,8 +22656,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A100)</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100">
+        <f>Both!C100/Both!D100</f>
+        <v>0.37552336493575245</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>-1.4130254203615196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -18047,8 +22677,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A101)</f>
         <v>151</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101">
+        <f>Both!C101/Both!D101</f>
+        <v>0.7882687005308715</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>-0.34324060372676768</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -18060,8 +22698,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A102)</f>
         <v>151</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102">
+        <f>Both!C102/Both!D102</f>
+        <v>16.467035500230519</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>4.041508950251111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -18073,8 +22719,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A103)</f>
         <v>151</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103">
+        <f>Both!C103/Both!D103</f>
+        <v>0.54933354896966269</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>-0.86424569188193878</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -18086,8 +22740,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A104)</f>
         <v>151</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104">
+        <f>Both!C104/Both!D104</f>
+        <v>16.882730187814932</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>4.0774763229798925</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -18099,8 +22761,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A105)</f>
         <v>154</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105">
+        <f>Both!C105/Both!D105</f>
+        <v>0.35351397532110712</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>-1.500160845261683</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -18112,8 +22782,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A106)</f>
         <v>154</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106">
+        <f>Both!C106/Both!D106</f>
+        <v>1.032893406879025</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>4.6691377821792349E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -18125,8 +22803,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A107)</f>
         <v>154</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107">
+        <f>Both!C107/Both!D107</f>
+        <v>1.4185330015404667</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>0.50439971466228417</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -18138,8 +22824,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A108)</f>
         <v>155</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108">
+        <f>Both!C108/Both!D108</f>
+        <v>50.597780569514242</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="1"/>
+        <v>5.6610021985504249</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -18151,8 +22845,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A109)</f>
         <v>155</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109">
+        <f>Both!C109/Both!D109</f>
+        <v>0.711435074363301</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>-0.49119599262335301</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -18164,8 +22866,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A110)</f>
         <v>155</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110">
+        <f>Both!C110/Both!D110</f>
+        <v>0.54977594497625459</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>-0.8630843106677798</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -18177,8 +22887,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A111)</f>
         <v>155</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111">
+        <f>Both!C111/Both!D111</f>
+        <v>16.948487712665404</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>4.0830846445455551</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -18190,8 +22908,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A112)</f>
         <v>156</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112">
+        <f>Both!C112/Both!D112</f>
+        <v>0.64898337758702218</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>-0.62374656794165695</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -18203,8 +22929,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A113)</f>
         <v>156</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113">
+        <f>Both!C113/Both!D113</f>
+        <v>1.5018647738209816</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>0.58675492009555985</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -18216,8 +22950,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A114)</f>
         <v>156</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114">
+        <f>Both!C114/Both!D114</f>
+        <v>1.2988907074013456</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="1"/>
+        <v>0.3772800431618048</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -18229,8 +22971,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A115)</f>
         <v>156</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115">
+        <f>Both!C115/Both!D115</f>
+        <v>35.663227404044576</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="1"/>
+        <v>5.156365362884487</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -18242,8 +22992,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A116)</f>
         <v>157</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116">
+        <f>Both!C116/Both!D116</f>
+        <v>1.1957452457601807</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="1"/>
+        <v>0.25791005523235488</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -18255,8 +23013,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A117)</f>
         <v>157</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117">
+        <f>Both!C117/Both!D117</f>
+        <v>0.78546309680481541</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="1"/>
+        <v>-0.34838459951728296</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -18268,8 +23034,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A118)</f>
         <v>157</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118">
+        <f>Both!C118/Both!D118</f>
+        <v>0.40265442067016555</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="1"/>
+        <v>-1.3123859223174654</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -18281,8 +23055,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A119)</f>
         <v>157</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119">
+        <f>Both!C119/Both!D119</f>
+        <v>24.680358476474979</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="1"/>
+        <v>4.6252914443372868</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -18294,8 +23076,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A120)</f>
         <v>157</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120">
+        <f>Both!C120/Both!D120</f>
+        <v>17.456366237482118</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="1"/>
+        <v>4.1256813699621944</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -18307,8 +23097,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A121)</f>
         <v>158</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121">
+        <f>Both!C121/Both!D121</f>
+        <v>0.44925605755812897</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="1"/>
+        <v>-1.1543901383972102</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -18320,8 +23118,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A122)</f>
         <v>158</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122">
+        <f>Both!C122/Both!D122</f>
+        <v>1.252665578439204</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="1"/>
+        <v>0.32500131272570615</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -18333,8 +23139,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A123)</f>
         <v>158</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123">
+        <f>Both!C123/Both!D123</f>
+        <v>1.1741383778180876</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="1"/>
+        <v>0.23160244697213478</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -18346,8 +23160,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A124)</f>
         <v>158</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124">
+        <f>Both!C124/Both!D124</f>
+        <v>0.44118938433017851</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="1"/>
+        <v>-1.180530016919215</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -18359,8 +23181,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A125)</f>
         <v>158</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125">
+        <f>Both!C125/Both!D125</f>
+        <v>1.6938785046728975</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="1"/>
+        <v>0.76033039946830883</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -18372,8 +23202,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A126)</f>
         <v>158</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126">
+        <f>Both!C126/Both!D126</f>
+        <v>16.604477611940297</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="1"/>
+        <v>4.0535004302833499</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -18385,8 +23223,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A127)</f>
         <v>159</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127">
+        <f>Both!C127/Both!D127</f>
+        <v>16.784816022356779</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="1"/>
+        <v>4.0690848186914792</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -18398,8 +23244,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A128)</f>
         <v>159</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128">
+        <f>Both!C128/Both!D128</f>
+        <v>22.534021406727827</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="1"/>
+        <v>4.4940328938505081</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -18411,8 +23265,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A129)</f>
         <v>159</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129">
+        <f>Both!C129/Both!D129</f>
+        <v>0.72140001949887889</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="1"/>
+        <v>-0.47112863276695888</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -18424,8 +23286,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A130)</f>
         <v>159</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130">
+        <f>Both!C130/Both!D130</f>
+        <v>0.62806445650530141</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="1"/>
+        <v>-0.67101546839994985</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -18437,8 +23307,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A131)</f>
         <v>159</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131">
+        <f>Both!C131/Both!D131</f>
+        <v>2.0793155278066831</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ref="E131:E144" si="2">LOG(D131,2)</f>
+        <v>1.0561086980048635</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -18450,8 +23328,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A132)</f>
         <v>159</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132">
+        <f>Both!C132/Both!D132</f>
+        <v>0.3206557198782079</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="2"/>
+        <v>-1.6409029525913552</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -18463,8 +23349,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A133)</f>
         <v>159</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133">
+        <f>Both!C133/Both!D133</f>
+        <v>0.5929072953996336</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="2"/>
+        <v>-0.75412154647787899</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -18476,8 +23370,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A134)</f>
         <v>159</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134">
+        <f>Both!C134/Both!D134</f>
+        <v>8.0476190476190474</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="2"/>
+        <v>3.0085620135034241</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -18489,8 +23391,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A135)</f>
         <v>159</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135">
+        <f>Both!C135/Both!D135</f>
+        <v>1.4840800919087478</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="2"/>
+        <v>0.56956895252582751</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -18502,8 +23412,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A136)</f>
         <v>160</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136">
+        <f>Both!C136/Both!D136</f>
+        <v>1.7249414270500532</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="2"/>
+        <v>0.78654737386813245</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -18515,8 +23433,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A137)</f>
         <v>160</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137">
+        <f>Both!C137/Both!D137</f>
+        <v>0.35106168040870128</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="2"/>
+        <v>-1.5102035652064818</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -18528,8 +23454,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A138)</f>
         <v>160</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138">
+        <f>Both!C138/Both!D138</f>
+        <v>1.4369429167456855</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="2"/>
+        <v>0.52300275117335193</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -18541,8 +23475,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A139)</f>
         <v>160</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139">
+        <f>Both!C139/Both!D139</f>
+        <v>0.95522861981371721</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="2"/>
+        <v>-6.6082032735261545E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -18554,8 +23496,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A140)</f>
         <v>161</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140">
+        <f>Both!C140/Both!D140</f>
+        <v>0.28997149726915178</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="2"/>
+        <v>-1.7860169973001216</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -18567,8 +23517,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A141)</f>
         <v>161</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141">
+        <f>Both!C141/Both!D141</f>
+        <v>16.574792243767316</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="2"/>
+        <v>4.0509188819211488</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -18580,8 +23538,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A142)</f>
         <v>161</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D142">
+        <f>Both!C142/Both!D142</f>
+        <v>0.36442113917324215</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="2"/>
+        <v>-1.4563214461320066</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -18593,8 +23559,16 @@
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A143)</f>
         <v>161</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143">
+        <f>Both!C143/Both!D143</f>
+        <v>16.668224299065422</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="2"/>
+        <v>4.0590285140656652</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -18605,6 +23579,14 @@
       <c r="C144">
         <f>COUNTIFS(DS!$C$1:$C$201,"&lt;="&amp;$A144)</f>
         <v>161</v>
+      </c>
+      <c r="D144">
+        <f>Both!C144/Both!D144</f>
+        <v>15.779860505666957</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="2"/>
+        <v>3.980012546837465</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">

--- a/paper/pldi21/img/figure7.xlsx
+++ b/paper/pldi21/img/figure7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naldo/project/safe_ds/paper/pldi21/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57F191E-A8BF-C249-ACCD-0C3320FD3C56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E475F7D0-BA8C-0B44-9039-03046BEEBF4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26700" activeTab="4" xr2:uid="{6D571640-1E5C-7D4E-B475-B88EE9F06437}"/>
   </bookViews>
@@ -1773,7 +1773,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>time (s)</a:t>
+                  <a:t>time (sec.)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1979,10 +1979,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4150,15 +4147,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>718785</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>27171</xdr:rowOff>
+      <xdr:colOff>504137</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>53662</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666303</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>165457</xdr:rowOff>
+      <xdr:rowOff>102852</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20561,7 +20558,7 @@
   <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" zoomScale="284" zoomScaleNormal="183" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
